--- a/Excel/res/services/File/MoveFiles/MoveFiles.xlsx
+++ b/Excel/res/services/File/MoveFiles/MoveFiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Files/develop/GitHub/PY_Service/Excel/res/services/File/MoveFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB2735C-153B-C642-93EE-C0CDAE31DB61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2F2C87-3048-9E4A-A8D3-9BCC457BA3C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45860" yWindow="460" windowWidth="22940" windowHeight="28340" xr2:uid="{3400439D-6956-7444-B596-8DA8A64B58D7}"/>
   </bookViews>
@@ -260,7 +260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{71074C1D-7A83-564F-A696-BBFB43721BC0}">
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{71074C1D-7A83-564F-A696-BBFB43721BC0}">
       <text>
         <r>
           <rPr>
@@ -426,7 +426,6 @@
         <sz val="12"/>
         <color rgb="FFC00000"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>sSubResFolderPath</t>
     </r>
@@ -452,7 +451,6 @@
         <sz val="12"/>
         <color rgb="FFC00000"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>sSubResFolderPath</t>
     </r>
@@ -526,7 +524,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -582,19 +580,24 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FF002060"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="等线 (正文)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="16">
@@ -689,7 +692,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -839,13 +842,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -856,58 +877,73 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -918,47 +954,62 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1274,7 +1325,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DCF3CD-B534-DA45-B2FF-D46346E2E15A}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1287,92 +1338,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
       <c r="F3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="31"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="32"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="40"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="33"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
@@ -1381,193 +1432,209 @@
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="28"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="35"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="29"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="35"/>
+      <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="29"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="37"/>
+      <c r="E12" s="25"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="29"/>
-      <c r="B13" s="26" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="15"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="30"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="9" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" s="16"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-    </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="28"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C17" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="28"/>
-      <c r="B17" s="7" t="s">
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="14"/>
+      <c r="B18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D18" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="35"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="29"/>
-      <c r="B18" s="7" t="s">
+      <c r="E18" s="36"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="15"/>
+      <c r="B19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D19" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="35"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="29"/>
-      <c r="B19" s="7" t="s">
+      <c r="E19" s="36"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="15"/>
+      <c r="B20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C20" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D20" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="37"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="29"/>
-      <c r="B20" s="26" t="s">
+      <c r="E20" s="25"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="15"/>
+      <c r="B21" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C21" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="15"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="30"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="9" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" s="16"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
+    <row r="24" spans="1:5">
+      <c r="A24" s="26"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="C17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="C3:E3"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
     <mergeCell ref="A8:E8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D13:E13"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/res/services/File/MoveFiles/MoveFiles.xlsx
+++ b/Excel/res/services/File/MoveFiles/MoveFiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Files/develop/GitHub/PY_Service/Excel/res/services/File/MoveFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2F2C87-3048-9E4A-A8D3-9BCC457BA3C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9303AC0B-56D2-E548-9AC4-EBE30BB7F360}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45860" yWindow="460" windowWidth="22940" windowHeight="28340" xr2:uid="{3400439D-6956-7444-B596-8DA8A64B58D7}"/>
   </bookViews>
@@ -183,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{D7B45BDB-BC97-2A45-8A1F-E9497DEE53B5}">
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{D7B45BDB-BC97-2A45-8A1F-E9497DEE53B5}">
       <text>
         <r>
           <rPr>
@@ -260,7 +260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{71074C1D-7A83-564F-A696-BBFB43721BC0}">
+    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{71074C1D-7A83-564F-A696-BBFB43721BC0}">
       <text>
         <r>
           <rPr>
@@ -342,7 +342,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>全局参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,15 +508,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>replace覆盖目标目录中已有的文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>override保持结构全部覆盖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>override</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExecCMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sCMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在哪里执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sExecFolderPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看 source 结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看 replace 后的 target 结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看 override 后的 target 结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replace 用 source 覆盖掉 target 中同结构的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>override 用 source 保持结构覆盖掉 target 中的文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -866,7 +906,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -904,9 +944,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -933,82 +970,97 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1325,9 +1377,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DCF3CD-B534-DA45-B2FF-D46346E2E15A}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -1339,41 +1393,41 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="10"/>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
       <c r="F1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
       <c r="F3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="17"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1386,7 +1440,7 @@
       <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="18"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1399,242 +1453,373 @@
       <c r="E5" s="40"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="19"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="38"/>
+      <c r="E6" s="42"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="28"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="38"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="21"/>
+      <c r="B10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C12" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="13"/>
+      <c r="B13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="14"/>
+      <c r="B14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="14"/>
+      <c r="B15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="28"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="14"/>
+      <c r="B16" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="14"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="15"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="38"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="21"/>
+      <c r="B22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="26"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="13"/>
+      <c r="B25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="26"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="14"/>
+      <c r="B26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="26"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="14"/>
+      <c r="B27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="14"/>
-      <c r="B10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="36"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="15"/>
-      <c r="B11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="35" t="s">
+      <c r="E27" s="28"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="14"/>
+      <c r="B28" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="49"/>
+      <c r="E28" s="50"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="14"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="15"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="29"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="31"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="38"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="21"/>
+      <c r="B33" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="21"/>
+      <c r="B34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="36"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="15"/>
-      <c r="B12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="25"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="15"/>
-      <c r="B13" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="15"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="16"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="14"/>
-      <c r="B18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="36"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="15"/>
-      <c r="B19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="36"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="15"/>
-      <c r="B20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="25"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="15"/>
-      <c r="B21" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="15"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="16"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="28"/>
+      <c r="E34" s="26"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="D18:E18"/>
+  <mergeCells count="32">
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="C12:E12"/>
     <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/res/services/File/MoveFiles/MoveFiles.xlsx
+++ b/Excel/res/services/File/MoveFiles/MoveFiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Files/develop/GitHub/PY_Service/Excel/res/services/File/MoveFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9303AC0B-56D2-E548-9AC4-EBE30BB7F360}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B506B7C0-C29E-3D45-AAAF-57F9E4496E27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45860" yWindow="460" windowWidth="22940" windowHeight="28340" xr2:uid="{3400439D-6956-7444-B596-8DA8A64B58D7}"/>
+    <workbookView xWindow="22940" yWindow="14620" windowWidth="22940" windowHeight="14180" xr2:uid="{3400439D-6956-7444-B596-8DA8A64B58D7}"/>
   </bookViews>
   <sheets>
     <sheet name="WorkFlow&lt;cmd&gt;" sheetId="1" r:id="rId1"/>
@@ -183,166 +183,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{D7B45BDB-BC97-2A45-8A1F-E9497DEE53B5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">replace:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">        </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t>只覆盖目标同结构已存在的文件</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">override : 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">       </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t>保持结构，全部覆盖过去</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{71074C1D-7A83-564F-A696-BBFB43721BC0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">replace:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">        </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t>只覆盖目标同结构已存在的文件</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">override : 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">       </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t>保持结构，全部覆盖过去</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
   <si>
     <t>全局参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -496,22 +342,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>拷贝类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>replace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>override</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CMD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -557,6 +387,18 @@
   </si>
   <si>
     <t>override 用 source 保持结构覆盖掉 target 中的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JustCMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Override</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,7 +406,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -616,21 +458,6 @@
       <sz val="12"/>
       <color rgb="FFC00000"/>
       <name val="等线 (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF002060"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC00000"/>
-      <name val="等线 (正文)"/>
     </font>
     <font>
       <b/>
@@ -638,6 +465,14 @@
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei UI"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="16">
@@ -727,7 +562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,7 +741,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -964,9 +799,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -981,6 +813,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -988,54 +829,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1054,14 +847,62 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1377,51 +1218,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DCF3CD-B534-DA45-B2FF-D46346E2E15A}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="10"/>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
       <c r="F1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
       <c r="F3" t="s">
         <v>12</v>
       </c>
@@ -1434,10 +1273,10 @@
       <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="50"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="17"/>
@@ -1447,10 +1286,10 @@
       <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="E5" s="50"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="18"/>
@@ -1460,366 +1299,385 @@
       <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="42"/>
+      <c r="E6" s="52"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="20"/>
+      <c r="B9" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="20"/>
+      <c r="B11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="38"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22" t="s">
+      <c r="C11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="21"/>
-      <c r="B10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="D11" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="28"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="44"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="20"/>
+      <c r="B14" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="13"/>
+      <c r="B15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="27" t="s">
         <v>19</v>
-      </c>
-      <c r="E10" s="26"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="13"/>
-      <c r="B13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="26"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="14"/>
-      <c r="B14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="26"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="14"/>
-      <c r="B15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>30</v>
       </c>
       <c r="E15" s="28"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="14"/>
-      <c r="B16" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
+      <c r="B16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="28"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="14"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="8" t="s">
+      <c r="B17" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="14"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="15"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="8" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="15"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E19" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
-    </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="25"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="20"/>
+      <c r="B22" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="20"/>
+      <c r="B23" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="1" t="s">
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="20"/>
+      <c r="B24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="38"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22" t="s">
+      <c r="C24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="21"/>
-      <c r="B22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="25" t="s">
+      <c r="D24" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="26"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="13"/>
-      <c r="B25" s="6" t="s">
+      <c r="C26" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="44"/>
+      <c r="E26" s="25"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="20"/>
+      <c r="B27" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="13"/>
+      <c r="B28" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D28" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="26"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="14"/>
-      <c r="B26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="26"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="14"/>
-      <c r="B27" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="28"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="14"/>
-      <c r="B28" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="50"/>
+      <c r="E28" s="28"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="14"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="8" t="s">
+      <c r="B29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="28"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="14"/>
+      <c r="B30" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="38"/>
+      <c r="E30" s="39"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="14"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E31" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="15"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="8" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" s="15"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E32" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="29"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="31"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:5">
+      <c r="A33" s="35"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="37"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="25"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="20"/>
+      <c r="B35" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="41"/>
+      <c r="D35" s="42"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="20"/>
+      <c r="B36" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="1" t="s">
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="20"/>
+      <c r="B37" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="38"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="21"/>
-      <c r="B33" s="22" t="s">
+      <c r="C37" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="21"/>
-      <c r="B34" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="25" t="s">
+      <c r="D37" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="26"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="51"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
+      <c r="E37" s="28"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="D25:E25"/>
+  <mergeCells count="35">
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B27:E27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/res/services/File/MoveFiles/MoveFiles.xlsx
+++ b/Excel/res/services/File/MoveFiles/MoveFiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Files/develop/GitHub/PY_Service/Excel/res/services/File/MoveFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B506B7C0-C29E-3D45-AAAF-57F9E4496E27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C828FB-AEF1-704D-9D28-916918BE68E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22940" yWindow="14620" windowWidth="22940" windowHeight="14180" xr2:uid="{3400439D-6956-7444-B596-8DA8A64B58D7}"/>
   </bookViews>
@@ -35,43 +35,7 @@
     <author>贾世洋</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{4F29BD80-14BF-C34B-B845-159E19A31286}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t>不要填内容</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="4"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t>第一列是用来分割步骤的</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{CD484F75-3D2A-7F49-ADD5-9B1DB4B46F4F}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{CD484F75-3D2A-7F49-ADD5-9B1DB4B46F4F}">
       <text>
         <r>
           <rPr>
@@ -85,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{46182B5F-EC1E-D544-BFA9-1E01A129EA88}">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{46182B5F-EC1E-D544-BFA9-1E01A129EA88}">
       <text>
         <r>
           <rPr>
@@ -188,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
   <si>
     <t>全局参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,13 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sPublicType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sSourceFolder</t>
-  </si>
-  <si>
     <t>文件所在文件夹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,10 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sTargetFolder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Global</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,26 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>通过命令行执行，这里的参数会和命令行参数进行一次Merge。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jenkins的本质也是命令行驱动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一个步骤，是全局参数，固定填写 Global 和 -</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sSubResFolderPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sProjectFolderPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>子服务资源路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,8 +197,120 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>MoveFiles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拷贝过滤项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExecCMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在哪里执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看 source 结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看 replace 后的 target 结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看 override 后的 target 结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replace 用 source 覆盖掉 target 中同结构的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>override 用 source 保持结构覆盖掉 target 中的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JustCMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Override</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;projectFolderPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;publicType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;subResFolderPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;CMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;execFolderPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;sourceFolder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;targetFolder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;l&gt;filters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;filters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>{</t>
+      <t>{s</t>
     </r>
     <r>
       <rPr>
@@ -273,7 +318,7 @@
         <color rgb="FFC00000"/>
         <rFont val="等线 (正文)"/>
       </rPr>
-      <t>sSubResFolderPath</t>
+      <t>ubResFolderPath</t>
     </r>
     <r>
       <rPr>
@@ -290,7 +335,7 @@
   </si>
   <si>
     <r>
-      <t>{</t>
+      <t>{s</t>
     </r>
     <r>
       <rPr>
@@ -298,7 +343,7 @@
         <color rgb="FFC00000"/>
         <rFont val="等线 (正文)"/>
       </rPr>
-      <t>sSubResFolderPath</t>
+      <t>ubResFolderPath</t>
     </r>
     <r>
       <rPr>
@@ -311,94 +356,6 @@
       </rPr>
       <t>}/target/</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoveFiles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>File</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拷贝过滤项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lFilters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CMD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExecCMD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行命令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sCMD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在哪里执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sExecFolderPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看 source 结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看 replace 后的 target 结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看 override 后的 target 结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>replace 用 source 覆盖掉 target 中同结构的文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>override 用 source 保持结构覆盖掉 target 中的文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JustCMD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Replace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Override</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,16 +396,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="等线"/>
       <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="等线 (正文)"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -466,16 +430,8 @@
       <name val="Microsoft YaHei UI"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="16">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,18 +500,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -567,7 +511,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -726,22 +670,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -772,13 +707,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -814,14 +746,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -829,6 +755,57 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -847,62 +824,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1218,9 +1147,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DCF3CD-B534-DA45-B2FF-D46346E2E15A}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -1230,454 +1161,438 @@
     <col min="4" max="5" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="10"/>
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="15"/>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="36"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="16"/>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" t="s">
+      <c r="E4" s="36"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="17"/>
+      <c r="B5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="38"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="34"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="19"/>
+      <c r="B8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="19"/>
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="16"/>
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="50"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="17"/>
-      <c r="B5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="C12" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="19"/>
+      <c r="B13" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="12"/>
+      <c r="B14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="50"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="18"/>
-      <c r="B6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="52"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="20"/>
-      <c r="B9" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="20"/>
-      <c r="B11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="28"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="25"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="20"/>
-      <c r="B14" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="D14" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="13"/>
       <c r="B15" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="28"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="14"/>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="28"/>
+        <v>35</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="25"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="13"/>
+      <c r="B16" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="14"/>
-      <c r="B17" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="14"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="53" t="s">
+      <c r="B18" s="45"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="34"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="19"/>
+      <c r="B21" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="19"/>
+      <c r="B23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="25"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="19"/>
+      <c r="B26" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="15"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="25"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="20"/>
-      <c r="B22" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="20"/>
-      <c r="B24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="12"/>
+      <c r="B27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="28"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="25"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="20"/>
-      <c r="B27" s="43" t="s">
+      <c r="D27" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="13"/>
       <c r="B28" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="28"/>
+        <v>35</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="14"/>
-      <c r="B29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="28"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="49"/>
+      <c r="E29" s="50"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="14"/>
-      <c r="B30" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="39"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="14"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="53" t="s">
-        <v>25</v>
+      <c r="B31" s="45"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="E31" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="26"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="28"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="32" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="15"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="35"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="37"/>
+      <c r="D33" s="34"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="24" t="s">
+      <c r="A34" s="19"/>
+      <c r="B34" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="40"/>
+      <c r="D34" s="41"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="19"/>
+      <c r="B35" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="19"/>
+      <c r="B36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="25"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="20"/>
-      <c r="B35" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="42"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>32</v>
-      </c>
+      <c r="E36" s="25"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="20"/>
-      <c r="B37" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="28"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="34">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B13:E13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/res/services/File/MoveFiles/MoveFiles.xlsx
+++ b/Excel/res/services/File/MoveFiles/MoveFiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Files/develop/GitHub/PY_Service/Excel/res/services/File/MoveFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C828FB-AEF1-704D-9D28-916918BE68E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96017D2A-3973-994B-8250-8934F934A63E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22940" yWindow="14620" windowWidth="22940" windowHeight="14180" xr2:uid="{3400439D-6956-7444-B596-8DA8A64B58D7}"/>
   </bookViews>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>全局参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -245,10 +245,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查看 override 后的 target 结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>replace 用 source 覆盖掉 target 中同结构的文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -302,10 +298,6 @@
   </si>
   <si>
     <t>&lt;s&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;s&gt;filters</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -755,57 +747,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -824,13 +765,64 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1147,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DCF3CD-B534-DA45-B2FF-D46346E2E15A}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1162,11 +1154,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="26"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
+      <c r="A1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
@@ -1175,11 +1167,11 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="15"/>
@@ -1187,12 +1179,12 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="36"/>
+      <c r="E3" s="49"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="16"/>
@@ -1200,12 +1192,12 @@
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="36"/>
+      <c r="E4" s="49"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="17"/>
@@ -1213,19 +1205,19 @@
         <v>7</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="38"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
@@ -1234,18 +1226,18 @@
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="34"/>
+      <c r="C7" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="39"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="19"/>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="19"/>
@@ -1253,7 +1245,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>19</v>
@@ -1265,19 +1257,19 @@
         <v>20</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" s="25"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
@@ -1286,20 +1278,20 @@
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
+      <c r="C12" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="19"/>
-      <c r="B13" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
+      <c r="B13" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="12"/>
@@ -1307,10 +1299,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" s="25"/>
     </row>
@@ -1320,30 +1312,30 @@
         <v>4</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E15" s="25"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="13"/>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
+      <c r="C16" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="13"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="47"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>14</v>
@@ -1351,21 +1343,21 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="14"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="48"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
@@ -1374,18 +1366,18 @@
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="34"/>
+      <c r="C20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="39"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="19"/>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="19"/>
@@ -1393,7 +1385,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>19</v>
@@ -1405,18 +1397,18 @@
         <v>20</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
@@ -1425,20 +1417,20 @@
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
+      <c r="C25" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="19"/>
-      <c r="B26" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
+      <c r="B26" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="12"/>
@@ -1446,10 +1438,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E27" s="25"/>
     </row>
@@ -1459,30 +1451,30 @@
         <v>4</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="13"/>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="50"/>
+      <c r="C29" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="35"/>
+      <c r="E29" s="36"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="13"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="47"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>14</v>
@@ -1490,95 +1482,24 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="14"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="48"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="26"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="28"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="34"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="19"/>
-      <c r="B34" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="41"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="19"/>
-      <c r="B36" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="25"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="51"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B21:D21"/>
+  <mergeCells count="30">
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C2:E2"/>
@@ -1593,6 +1514,22 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="D29:E29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/res/services/File/MoveFiles/MoveFiles.xlsx
+++ b/Excel/res/services/File/MoveFiles/MoveFiles.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Files/develop/GitHub/PY_Service/Excel/res/services/File/MoveFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96017D2A-3973-994B-8250-8934F934A63E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151FB7E9-7720-B548-9D78-1C89E500B98F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22940" yWindow="14620" windowWidth="22940" windowHeight="14180" xr2:uid="{3400439D-6956-7444-B596-8DA8A64B58D7}"/>
   </bookViews>
   <sheets>
-    <sheet name="WorkFlow&lt;cmd&gt;" sheetId="1" r:id="rId1"/>
+    <sheet name="Override&lt;cmd&gt;" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -747,6 +747,57 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -765,64 +816,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1142,7 +1142,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:C31"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1154,11 +1154,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="32"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
@@ -1167,11 +1167,11 @@
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="15"/>
@@ -1181,10 +1181,10 @@
       <c r="C3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="49"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="16"/>
@@ -1194,10 +1194,10 @@
       <c r="C4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="49"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="17"/>
@@ -1207,17 +1207,17 @@
       <c r="C5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="51"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
@@ -1226,18 +1226,18 @@
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="39"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="19"/>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="19"/>
@@ -1265,11 +1265,11 @@
       <c r="E10" s="25"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
@@ -1278,20 +1278,20 @@
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="19"/>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="12"/>
@@ -1321,19 +1321,19 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="13"/>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="13"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="30"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="23" t="s">
         <v>36</v>
       </c>
@@ -1343,8 +1343,8 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="14"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="31"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="23" t="s">
         <v>36</v>
       </c>
@@ -1353,11 +1353,11 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
@@ -1366,18 +1366,18 @@
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="39"/>
+      <c r="D20" s="34"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="19"/>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="19"/>
@@ -1405,10 +1405,10 @@
       <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
@@ -1417,20 +1417,20 @@
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="19"/>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="12"/>
@@ -1460,19 +1460,19 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="13"/>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="36"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="50"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="13"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="30"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="23" t="s">
         <v>36</v>
       </c>
@@ -1482,8 +1482,8 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="14"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="31"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="48"/>
       <c r="D31" s="23" t="s">
         <v>36</v>
       </c>
@@ -1492,14 +1492,30 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="32"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="34"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B26:E26"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C2:E2"/>
@@ -1514,22 +1530,6 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="D29:E29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
